--- a/exports/xlsx/terms_definition_2.xlsx
+++ b/exports/xlsx/terms_definition_2.xlsx
@@ -473,264 +473,172 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Instrument Data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
+          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>- core</t>
-        </is>
-      </c>
+          <t>Geolocating</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Verification</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Property whose instances can be compared by ratio or only by order.</t>
+          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>- gEOGlos(VIM4 Notes omitted)</t>
+          <t>- EU-US Land Imaging EO Collaboration</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Auxiliary Data</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
-- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
+          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
+- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ancillary Data</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Characteristic</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Abstraction of a Property of an Object or of a set of objects.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>- Characteristics are used for describing Concepts.</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>- CEOS-ARD PFS template 20220302</t>
+          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Georectifying</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Orthorectifying</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>External person, institution or system that consumes provided services.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
-        </is>
-      </c>
+          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>- EO Data Stewardship Glossary)</t>
+          <t>- KCEO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Test term</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Instrument Data</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>- VIM?, modified</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Geolocating</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Test term</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Second_definition_goes_here.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>- here should be bullets
 - like this</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>- this is also bullets
 - like this</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>- KCEO (no link included, so no brackets)
 - [Website](https://en.wikipedia.org/wiki/Thai_script) ( if you have web references, just add the term goes into square [] brackets and the url into () normal brackets
@@ -741,129 +649,221 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Property whose instances can be compared by ratio or only by order.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>- gEOGlos(VIM4 Notes omitted)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ancillary Data</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>- CEOS-ARD PFS template 20220302</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>- BIPM; QA4EO; ESA ?, modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Auxiliary Data</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>- core</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
-        </is>
-      </c>
+          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
-- EO Data Stewardship Glossary)</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
-        </is>
-      </c>
+          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>- BIPM; QA4EO; ESA ?, modified</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Characteristic</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Abstraction of a Property of an Object or of a set of objects.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>- Characteristics are used for describing Concepts.</t>
-        </is>
-      </c>
+          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
+          <t>- VIM?, modified</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Georectifying</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Orthorectifying</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>External person, institution or system that consumes provided services.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>- KCEO</t>
+          <t>- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
+- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>- EU-US Land Imaging EO Collaboration</t>
+          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
         </is>
       </c>
     </row>

--- a/exports/xlsx/terms_definition_2.xlsx
+++ b/exports/xlsx/terms_definition_2.xlsx
@@ -473,172 +473,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Instrument Data</t>
+          <t>Geolocating</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
+          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
+          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Geolocating</t>
+          <t>Ancillary Data</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
+          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
+          <t>- CEOS-ARD PFS template 20220302</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Instrument Data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
+          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>- EU-US Land Imaging EO Collaboration</t>
+          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Auxiliary Data</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
-        </is>
-      </c>
+          <t>Property whose instances can be compared by ratio or only by order.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
-- EO Data Stewardship Glossary)</t>
+          <t>- gEOGlos(VIM4 Notes omitted)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Characteristic</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Georectifying</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Orthorectifying</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abstraction of a Property of an Object or of a set of objects.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>- Characteristics are used for describing Concepts.</t>
-        </is>
-      </c>
+          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
+          <t>- KCEO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Georectifying</t>
+          <t>Test term</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Orthorectifying</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>- KCEO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Test term</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>Second_definition_goes_here.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>- here should be bullets
 - like this</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>- this is also bullets
 - like this</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>- KCEO (no link included, so no brackets)
 - [Website](https://en.wikipedia.org/wiki/Thai_script) ( if you have web references, just add the term goes into square [] brackets and the url into () normal brackets
@@ -649,10 +619,35 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>- core</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Characteristic</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -663,207 +658,212 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Property whose instances can be compared by ratio or only by order.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Abstraction of a Property of an Object or of a set of objects.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>- Characteristics are used for describing Concepts.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>- gEOGlos(VIM4 Notes omitted)</t>
+          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ancillary Data</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
+          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>- CEOS-ARD PFS template 20220302</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
-        </is>
-      </c>
+          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>- BIPM; QA4EO; ESA ?, modified</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Auxiliary Data</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
-        </is>
-      </c>
+          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
+- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>- core</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- VIM?, modified</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Validation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- BIPM; QA4EO; ESA ?, modified</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
+          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>- VIM?, modified</t>
+          <t>- EU-US Land Imaging EO Collaboration</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>External person, institution or system that consumes provided services.</t>
+          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
+          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
+- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>- EO Data Stewardship Glossary)</t>
+          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+          <t>External person, institution or system that consumes provided services.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
-- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
+          <t>- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>

--- a/exports/xlsx/terms_definition_2.xlsx
+++ b/exports/xlsx/terms_definition_2.xlsx
@@ -473,142 +473,243 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Geolocating</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
+- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
+          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ancillary Data</t>
+          <t>Verification</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
+          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>- CEOS-ARD PFS template 20220302</t>
+          <t>- EU-US Land Imaging EO Collaboration</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instrument Data</t>
+          <t>Ancillary Data</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
+          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
+          <t>- CEOS-ARD PFS template 20220302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Geolocating</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Property whose instances can be compared by ratio or only by order.</t>
+          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>- gEOGlos(VIM4 Notes omitted)</t>
+          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Georectifying</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Orthorectifying</t>
-        </is>
-      </c>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
+          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>- KCEO</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Georectifying</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Orthorectifying</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>- KCEO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Characteristic</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Abstraction of a Property of an Object or of a set of objects.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>- Characteristics are used for describing Concepts.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>- VIM?, modified</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Instrument Data</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Test term</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Second_definition_goes_here.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>- here should be bullets
 - like this</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>- this is also bullets
 - like this</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>- KCEO (no link included, so no brackets)
 - [Website](https://en.wikipedia.org/wiki/Thai_script) ( if you have web references, just add the term goes into square [] brackets and the url into () normal brackets
@@ -619,251 +720,150 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>- core</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Characteristic</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Abstraction of a Property of an Object or of a set of objects.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>- Characteristics are used for describing Concepts.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Baseline</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Auxiliary Data</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
-        </is>
-      </c>
+          <t>Property whose instances can be compared by ratio or only by order.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
-- EO Data Stewardship Glossary)</t>
+          <t>- gEOGlos(VIM4 Notes omitted)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
+          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>- VIM?, modified</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Validation</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>- core</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
-        </is>
-      </c>
+          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>- BIPM; QA4EO; ESA ?, modified</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Validation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>- EU-US Land Imaging EO Collaboration</t>
+          <t>- BIPM; QA4EO; ESA ?, modified</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+          <t>External person, institution or system that consumes provided services.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
-- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
+          <t>- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Auxiliary Data</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>External person, institution or system that consumes provided services.</t>
+          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
+          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>- EO Data Stewardship Glossary)</t>
+          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
+- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
